--- a/raw_data/KEEN ONE/Grabowski/2015/Pumphouse Beach/Pumphouse_Site_Info_1_25_17.xlsx
+++ b/raw_data/KEEN ONE/Grabowski/2015/Pumphouse Beach/Pumphouse_Site_Info_1_25_17.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9345" yWindow="0" windowWidth="25605" windowHeight="16065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
+    <sheet name="JEKB Changes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Entry'!#REF!</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Transect 2</t>
   </si>
@@ -99,27 +100,6 @@
     <t>70.90.802 W</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">13.89 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>˚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>C</t>
-    </r>
-  </si>
-  <si>
     <t>42.41.620 N</t>
   </si>
   <si>
@@ -132,14 +112,35 @@
     <t>70.90.636 W</t>
   </si>
   <si>
-    <t>12.78 ˚C</t>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Orig Lat/long</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Added MDY</t>
+  </si>
+  <si>
+    <t>Fixed lat/long</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -169,11 +170,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -192,8 +188,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -238,7 +272,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -254,6 +288,25 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -269,6 +322,25 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -671,29 +743,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="14" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -706,38 +779,47 @@
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -750,35 +832,44 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2015</v>
+      </c>
+      <c r="H2" s="6">
         <v>42223</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>24</v>
+      <c r="I2">
+        <v>42.416289999999996</v>
       </c>
       <c r="J2">
+        <v>-70.907589999999999</v>
+      </c>
+      <c r="K2">
+        <v>42.416400000000003</v>
+      </c>
+      <c r="L2">
+        <v>-70.908019999999993</v>
+      </c>
+      <c r="M2">
         <v>5.49</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>4.88</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>2</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P2" s="5">
+        <v>13.89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -791,50 +882,62 @@
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2015</v>
+      </c>
+      <c r="H3" s="6">
         <v>42223</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>29</v>
+      <c r="I3">
+        <v>42.416200000000003</v>
       </c>
       <c r="J3">
+        <v>-70.906790000000001</v>
+      </c>
+      <c r="K3">
+        <v>42.416319999999999</v>
+      </c>
+      <c r="L3">
+        <v>-70.906360000000006</v>
+      </c>
+      <c r="M3">
         <v>4.57</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>1.83</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>2</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P3" s="5">
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="B4"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1">
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -842,77 +945,80 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="B16"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2">
       <c r="B17"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2">
       <c r="B19"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2">
       <c r="B20"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2">
       <c r="B27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D74:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D74:J1048576">
       <formula1>" IN 20, IN 40, OFF 40, OFF 20"</formula1>
     </dataValidation>
   </dataValidations>
@@ -924,4 +1030,90 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6">
+        <v>42921</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6">
+        <v>42921</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/raw_data/KEEN ONE/Grabowski/2015/Pumphouse Beach/Pumphouse_Site_Info_1_25_17.xlsx
+++ b/raw_data/KEEN ONE/Grabowski/2015/Pumphouse Beach/Pumphouse_Site_Info_1_25_17.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jebyrnes/Dropbox (Byrnes Lab)/Byrnes Lab Shared Folder/KEEN Data Processing/Monitoring/raw_data/KEEN ONE/Grabowski/2015/Pumphouse Beach/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D519144-AD40-3C42-BE2E-7F1F1B901997}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Entry'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,15 +29,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Transect 2</t>
-  </si>
-  <si>
-    <t>Transect 3</t>
-  </si>
-  <si>
-    <t>Transect 4</t>
   </si>
   <si>
     <t>Transect 1</t>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -416,6 +416,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -742,14 +745,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" style="3" customWidth="1"/>
@@ -766,71 +769,71 @@
     <col min="16" max="16" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="14" customHeight="1">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4">
         <v>8</v>
@@ -869,15 +872,15 @@
         <v>13.89</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
@@ -919,22 +922,18 @@
         <v>12.78</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B4"/>
-      <c r="D4" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1">
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5"/>
       <c r="C5"/>
-      <c r="D5" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -949,76 +948,76 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B16"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D74:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D74:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>" IN 20, IN 40, OFF 40, OFF 20"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1033,78 +1032,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>42921</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>42921</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
